--- a/ReferDocs/CKM临床定义-3-21新.xlsx
+++ b/ReferDocs/CKM临床定义-3-21新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CKM-Modeling\ReferDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F92C53-B8CB-4ACC-8977-C2BBCCD8D165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4D7BB9-1827-4D10-9245-30B3100C7457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>STAGE:0 无CKM风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,14 @@
   </si>
   <si>
     <t>以上三项其中之一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKD(Chrontic Kidney Disease): 慢性肾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVD(Cardiovascular Disease): 心血管疾病</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,18 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -570,9 +566,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -589,43 +582,54 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -909,7 +913,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -924,10 +928,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,155 +941,157 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8" s="30" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="H4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="17" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="18" t="s">
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="20" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" s="30" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="25" t="s">
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="21" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" s="30" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="28" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="13"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1093,7 +1099,9 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1634,17 +1642,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ReferDocs/CKM临床定义-3-21新.xlsx
+++ b/ReferDocs/CKM临床定义-3-21新.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CKM-Modeling\ReferDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4D7BB9-1827-4D10-9245-30B3100C7457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B741A9-DD1A-4C3F-B7FB-81A3EACB955E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3468" yWindow="17172" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="定义" sheetId="1" r:id="rId1"/>
+    <sheet name="定义变量" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>STAGE:0 无CKM风险</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +300,77 @@
   <si>
     <t>CVD(Cardiovascular Disease): 心血管疾病</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情：高血压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情：糖尿病/高血糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情：心脏病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情：中风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病情：肾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒张压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体检数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问卷数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血检数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空腹血糖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HbA1c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘油三酯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高密度胆固醇</t>
   </si>
 </sst>
 </file>
@@ -378,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +475,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -544,11 +622,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,24 +695,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -627,8 +728,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -928,10 +1038,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -941,19 +1051,19 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
@@ -974,10 +1084,10 @@
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
         <v>16</v>
@@ -985,10 +1095,10 @@
       <c r="F3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -1007,10 +1117,10 @@
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1027,33 +1137,33 @@
         <v>18</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
       <c r="E6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6"/>
       <c r="E7" s="14" t="s">
         <v>20</v>
@@ -1064,10 +1174,10 @@
     </row>
     <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="4"/>
       <c r="E8" s="16" t="s">
         <v>21</v>
@@ -1642,17 +1752,109 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FCAE8A-7C94-47D3-B00A-D27442CEB0D7}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
